--- a/src/main/java/com/test/automation/MastekBlanketPOM/data/Login.xlsx
+++ b/src/main/java/com/test/automation/MastekBlanketPOM/data/Login.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Somesh\NewFrame\MastekBlanketPOM\src\main\java\com\test\automation\MastekBlanketPOM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parth\git\MastekBlanketPOM\src\main\java\com\test\automation\MastekBlanketPOM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,10 +80,10 @@
     <t>Invalid credentials</t>
   </si>
   <si>
-    <t>Welcome Admin</t>
-  </si>
-  <si>
     <t>Message</t>
+  </si>
+  <si>
+    <t>Welcome Somesh</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
